--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyObjectProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyObjectProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015886CD-E88F-402C-BCC1-502569769DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9DC083-BCD2-402B-9D30-64AF8C19B66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Keyword</t>
   </si>
@@ -169,9 +169,6 @@
     <t>AutoDemo91</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J02 </t>
-  </si>
-  <si>
     <t>smallWaitForElementPresent</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>button_saveDetails</t>
   </si>
   <si>
-    <t xml:space="preserve"> 27 - TEST 26 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> E - EXP </t>
   </si>
   <si>
@@ -227,6 +221,9 @@
   </si>
   <si>
     <t>dropdown_comptrollerObject_Opt_aop</t>
+  </si>
+  <si>
+    <t>J02</t>
   </si>
 </sst>
 </file>
@@ -611,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -647,13 +644,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -661,13 +658,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -689,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -711,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -722,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -733,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -744,7 +741,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -766,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -777,10 +774,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -821,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
@@ -837,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A53AC5-BB71-4D87-83E7-6EF4A9D8C7C7}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -925,25 +922,25 @@
         <v>2023</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="5">
+        <v>27</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
